--- a/Laboratoire Laser/Liste.xlsx
+++ b/Laboratoire Laser/Liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/240740284ad6a3d3/Desktop/IND2107/IND2107/Laboratoire Laser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="8_{C2EA7841-F420-4D90-8675-9F548D98957E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{177E21BF-B65F-44D6-B852-122923849F97}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{C2EA7841-F420-4D90-8675-9F548D98957E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45C19E88-D12E-4585-8482-56DBEC542DDD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46C34D2D-9FCF-4685-955A-75746161EDEE}"/>
   </bookViews>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC25756-3398-4483-99BD-86466ED73B4F}">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Laboratoire Laser/Liste.xlsx
+++ b/Laboratoire Laser/Liste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/240740284ad6a3d3/Desktop/IND2107/IND2107/Laboratoire Laser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{C2EA7841-F420-4D90-8675-9F548D98957E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45C19E88-D12E-4585-8482-56DBEC542DDD}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="8_{C2EA7841-F420-4D90-8675-9F548D98957E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02008FC9-DCF9-45A2-B004-B2D5C38A9D90}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46C34D2D-9FCF-4685-955A-75746161EDEE}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{46C34D2D-9FCF-4685-955A-75746161EDEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
   <si>
     <t>spartan knife (demander rescale)</t>
   </si>
@@ -546,6 +546,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -869,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC25756-3398-4483-99BD-86466ED73B4F}">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,26 +904,30 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1208,26 +1216,30 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>13</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1496,26 +1508,30 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>25</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="2">
         <v>25</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -1760,26 +1776,30 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="3">
         <v>36</v>
       </c>
-      <c r="C72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="4">
         <v>36</v>
       </c>
-      <c r="C73" s="4"/>
+      <c r="C73" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -1880,26 +1900,30 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="1">
         <v>41</v>
       </c>
-      <c r="C82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="2">
         <v>41</v>
       </c>
-      <c r="C83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -1928,26 +1952,30 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="1">
         <v>43</v>
       </c>
-      <c r="C86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="2">
         <v>43</v>
       </c>
-      <c r="C87" s="2"/>
+      <c r="C87" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>

--- a/Laboratoire Laser/Liste.xlsx
+++ b/Laboratoire Laser/Liste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/240740284ad6a3d3/Desktop/IND2107/IND2107/Laboratoire Laser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="8_{C2EA7841-F420-4D90-8675-9F548D98957E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02008FC9-DCF9-45A2-B004-B2D5C38A9D90}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="8_{C2EA7841-F420-4D90-8675-9F548D98957E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C46E596A-BDD0-4C9F-BB31-94078D066E10}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{46C34D2D-9FCF-4685-955A-75746161EDEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46C34D2D-9FCF-4685-955A-75746161EDEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
   <si>
     <t>spartan knife (demander rescale)</t>
   </si>
@@ -146,9 +146,6 @@
     <t>https://vectorsart.com/download/?file=55359</t>
   </si>
   <si>
-    <t>Carte holder</t>
-  </si>
-  <si>
     <t>https://vectorsart.com/download/?file=56894</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Carte holder 2</t>
   </si>
 </sst>
 </file>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC25756-3398-4483-99BD-86466ED73B4F}">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,22 +886,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>92</v>
-      </c>
-      <c r="F1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -964,7 +964,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -978,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1064,7 +1064,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1078,7 +1078,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1116,7 +1116,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1130,7 +1130,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1144,7 +1144,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1158,7 +1158,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1172,7 +1172,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1186,7 +1186,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1224,7 +1224,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1238,7 +1238,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1268,26 +1268,30 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>15</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1366,7 +1370,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="B38" s="1">
         <v>19</v>
@@ -1378,7 +1382,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2">
         <v>19</v>
@@ -1390,7 +1394,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="3">
         <v>20</v>
@@ -1402,7 +1406,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="4">
         <v>20</v>
@@ -1414,7 +1418,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1">
         <v>21</v>
@@ -1426,7 +1430,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2">
         <v>21</v>
@@ -1438,7 +1442,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="3">
         <v>22</v>
@@ -1450,7 +1454,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="4">
         <v>22</v>
@@ -1462,7 +1466,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1">
         <v>23</v>
@@ -1474,7 +1478,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="2">
         <v>23</v>
@@ -1486,7 +1490,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="3">
         <v>24</v>
@@ -1498,7 +1502,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="4">
         <v>24</v>
@@ -1510,13 +1514,13 @@
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1">
         <v>25</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1524,13 +1528,13 @@
     </row>
     <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="2">
         <v>25</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1538,7 +1542,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="3">
         <v>26</v>
@@ -1550,7 +1554,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="4">
         <v>26</v>
@@ -1562,7 +1566,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1">
         <v>27</v>
@@ -1574,7 +1578,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="2">
         <v>27</v>
@@ -1584,33 +1588,37 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="3">
         <v>28</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="4">
         <v>28</v>
       </c>
-      <c r="C57" s="4"/>
+      <c r="C57" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1">
         <v>29</v>
@@ -1622,7 +1630,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="2">
         <v>29</v>
@@ -1634,7 +1642,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="3">
         <v>30</v>
@@ -1646,7 +1654,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="4">
         <v>30</v>
@@ -1658,7 +1666,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1">
         <v>31</v>
@@ -1670,7 +1678,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="2">
         <v>31</v>
@@ -1682,7 +1690,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="3">
         <v>32</v>
@@ -1694,7 +1702,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="4">
         <v>32</v>
@@ -1706,7 +1714,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1">
         <v>33</v>
@@ -1718,7 +1726,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="2">
         <v>33</v>
@@ -1730,7 +1738,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="3">
         <v>34</v>
@@ -1742,7 +1750,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="4">
         <v>34</v>
@@ -1754,7 +1762,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1">
         <v>35</v>
@@ -1766,7 +1774,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="2">
         <v>35</v>
@@ -1778,13 +1786,13 @@
     </row>
     <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="3">
         <v>36</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -1792,13 +1800,13 @@
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="4">
         <v>36</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -1806,7 +1814,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="1">
         <v>37</v>
@@ -1818,7 +1826,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="2">
         <v>37</v>
@@ -1830,7 +1838,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="3">
         <v>38</v>
@@ -1842,7 +1850,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="4">
         <v>38</v>
@@ -1854,7 +1862,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="1">
         <v>39</v>
@@ -1866,7 +1874,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="2">
         <v>39</v>
@@ -1876,39 +1884,43 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="3">
         <v>40</v>
       </c>
-      <c r="C80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="4">
         <v>40</v>
       </c>
-      <c r="C81" s="4"/>
+      <c r="C81" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="1">
         <v>41</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -1916,13 +1928,13 @@
     </row>
     <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="2">
         <v>41</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -1930,7 +1942,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="3">
         <v>42</v>
@@ -1942,7 +1954,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="4">
         <v>42</v>
@@ -1954,13 +1966,13 @@
     </row>
     <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="1">
         <v>43</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -1968,13 +1980,13 @@
     </row>
     <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2">
         <v>43</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -1982,7 +1994,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="3">
         <v>44</v>
@@ -1994,7 +2006,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="5">
         <v>44</v>

--- a/Laboratoire Laser/Liste.xlsx
+++ b/Laboratoire Laser/Liste.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/240740284ad6a3d3/Desktop/IND2107/IND2107/Laboratoire Laser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="8_{C2EA7841-F420-4D90-8675-9F548D98957E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C46E596A-BDD0-4C9F-BB31-94078D066E10}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="8_{C2EA7841-F420-4D90-8675-9F548D98957E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65CDB65D-4140-4205-9B7D-9F70ABE95976}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46C34D2D-9FCF-4685-955A-75746161EDEE}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{46C34D2D-9FCF-4685-955A-75746161EDEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
   <si>
     <t>spartan knife (demander rescale)</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Carte holder 2</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -871,10 +874,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC25756-3398-4483-99BD-86466ED73B4F}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="A89" sqref="A4:A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,26 +1012,30 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1488,26 +1496,30 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B48" s="3">
         <v>24</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="4">
         <v>24</v>
       </c>
-      <c r="C49" s="4"/>
+      <c r="C49" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -1688,26 +1700,30 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B64" s="3">
         <v>32</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B65" s="4">
         <v>32</v>
       </c>
-      <c r="C65" s="4"/>
+      <c r="C65" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>

--- a/Laboratoire Laser/Liste.xlsx
+++ b/Laboratoire Laser/Liste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/240740284ad6a3d3/Desktop/IND2107/IND2107/Laboratoire Laser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="8_{C2EA7841-F420-4D90-8675-9F548D98957E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65CDB65D-4140-4205-9B7D-9F70ABE95976}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="8_{C2EA7841-F420-4D90-8675-9F548D98957E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6A5A0CE-FBD8-450D-A1AB-7D27B42E11C7}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{46C34D2D-9FCF-4685-955A-75746161EDEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46C34D2D-9FCF-4685-955A-75746161EDEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
   <si>
     <t>spartan knife (demander rescale)</t>
   </si>
@@ -878,7 +878,7 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A89" sqref="A4:A89"/>
+      <selection activeCell="A8" sqref="A8:A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,26 +936,30 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1200,26 +1204,30 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="3">
         <v>12</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="4">
         <v>12</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1304,26 +1312,30 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="3">
         <v>16</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="4">
         <v>16</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1552,26 +1564,30 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B52" s="3">
         <v>26</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B53" s="4">
         <v>26</v>
       </c>
-      <c r="C53" s="4"/>
+      <c r="C53" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -1728,26 +1744,30 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B66" s="1">
         <v>33</v>
       </c>
-      <c r="C66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B67" s="2">
         <v>33</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -1776,26 +1796,30 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B70" s="1">
         <v>35</v>
       </c>
-      <c r="C70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B71" s="2">
         <v>35</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>

--- a/Laboratoire Laser/Liste.xlsx
+++ b/Laboratoire Laser/Liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/240740284ad6a3d3/Desktop/IND2107/IND2107/Laboratoire Laser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="8_{C2EA7841-F420-4D90-8675-9F548D98957E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6A5A0CE-FBD8-450D-A1AB-7D27B42E11C7}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="8_{C2EA7841-F420-4D90-8675-9F548D98957E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8AF74D4-60AD-4B1F-85EE-2C3921252F43}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46C34D2D-9FCF-4685-955A-75746161EDEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="96">
   <si>
     <t>spartan knife (demander rescale)</t>
   </si>
@@ -878,7 +878,7 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A89"/>
+      <selection activeCell="A89" sqref="A8:A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,26 +1436,30 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B42" s="1">
         <v>21</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B43" s="2">
         <v>21</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1484,26 +1488,30 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="1">
         <v>23</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="2">
         <v>23</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -1592,26 +1600,30 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B54" s="1">
         <v>27</v>
       </c>
-      <c r="C54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B55" s="2">
         <v>27</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -1980,26 +1992,30 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B84" s="3">
         <v>42</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B85" s="4">
         <v>42</v>
       </c>
-      <c r="C85" s="4"/>
+      <c r="C85" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>

--- a/Laboratoire Laser/Liste.xlsx
+++ b/Laboratoire Laser/Liste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/240740284ad6a3d3/Desktop/IND2107/IND2107/Laboratoire Laser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="8_{C2EA7841-F420-4D90-8675-9F548D98957E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8AF74D4-60AD-4B1F-85EE-2C3921252F43}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="8_{C2EA7841-F420-4D90-8675-9F548D98957E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12254E51-5C05-431B-A553-E4F1BE6F3F18}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46C34D2D-9FCF-4685-955A-75746161EDEE}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{46C34D2D-9FCF-4685-955A-75746161EDEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
   <si>
     <t>spartan knife (demander rescale)</t>
   </si>
@@ -551,15 +551,13 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6BA77527-D9F0-4834-B957-FD2B5AC2AA33}" name="Table1" displayName="Table1" ref="A1:F89" totalsRowShown="0" tableBorderDxfId="6" dataCellStyle="20% - Accent6">
   <autoFilter ref="A1:F89" xr:uid="{6BA77527-D9F0-4834-B957-FD2B5AC2AA33}">
     <filterColumn colId="2">
-      <filters blank="1"/>
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F89">
@@ -877,8 +875,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A89" sqref="A8:A89"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,7 +906,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -922,7 +920,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -936,7 +934,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -950,7 +948,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -964,7 +962,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -978,7 +976,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -992,7 +990,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1002,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1016,7 +1014,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1030,7 +1028,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1044,7 +1042,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +1054,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1068,7 +1066,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1082,7 +1080,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1096,7 +1094,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1108,7 +1106,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1120,7 +1118,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1134,7 +1132,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1148,7 +1146,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -1162,7 +1160,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -1176,7 +1174,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1190,7 +1188,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1204,7 +1202,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -1218,7 +1216,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -1232,7 +1230,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1246,7 +1244,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1260,7 +1258,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -1272,7 +1270,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1284,7 +1282,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1298,7 +1296,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1312,7 +1310,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -1326,7 +1324,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -1340,7 +1338,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1352,7 +1350,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -1364,7 +1362,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -1376,7 +1374,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -1388,7 +1386,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>94</v>
       </c>
@@ -1400,7 +1398,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
@@ -1412,7 +1410,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
@@ -1424,7 +1422,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>38</v>
       </c>
@@ -1436,7 +1434,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -1450,7 +1448,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
@@ -1464,7 +1462,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>41</v>
       </c>
@@ -1476,7 +1474,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>42</v>
       </c>
@@ -1488,7 +1486,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -1502,7 +1500,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
@@ -1516,7 +1514,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>45</v>
       </c>
@@ -1530,7 +1528,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>46</v>
       </c>
@@ -1544,7 +1542,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -1558,7 +1556,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
@@ -1572,7 +1570,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>49</v>
       </c>
@@ -1586,7 +1584,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>50</v>
       </c>
@@ -1600,7 +1598,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -1614,7 +1612,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
@@ -1628,7 +1626,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>53</v>
       </c>
@@ -1642,7 +1640,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>54</v>
       </c>
@@ -1656,7 +1654,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -1668,7 +1666,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>56</v>
       </c>
@@ -1687,7 +1685,9 @@
       <c r="B60" s="3">
         <v>30</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1699,12 +1699,14 @@
       <c r="B61" s="4">
         <v>30</v>
       </c>
-      <c r="C61" s="4"/>
+      <c r="C61" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -1716,7 +1718,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>60</v>
       </c>
@@ -1728,7 +1730,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>61</v>
       </c>
@@ -1742,7 +1744,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>62</v>
       </c>
@@ -1756,7 +1758,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
@@ -1770,7 +1772,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>64</v>
       </c>
@@ -1784,7 +1786,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>65</v>
       </c>
@@ -1796,7 +1798,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>66</v>
       </c>
@@ -1808,7 +1810,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
@@ -1822,7 +1824,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>68</v>
       </c>
@@ -1836,7 +1838,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>69</v>
       </c>
@@ -1850,7 +1852,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>70</v>
       </c>
@@ -1871,7 +1873,9 @@
       <c r="B74" s="1">
         <v>37</v>
       </c>
-      <c r="C74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -1883,12 +1887,14 @@
       <c r="B75" s="2">
         <v>37</v>
       </c>
-      <c r="C75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>73</v>
       </c>
@@ -1900,7 +1906,7 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>74</v>
       </c>
@@ -1919,7 +1925,9 @@
       <c r="B78" s="1">
         <v>39</v>
       </c>
-      <c r="C78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -1931,12 +1939,14 @@
       <c r="B79" s="2">
         <v>39</v>
       </c>
-      <c r="C79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>77</v>
       </c>
@@ -1950,7 +1960,7 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>78</v>
       </c>
@@ -1964,7 +1974,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
@@ -1978,7 +1988,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -1992,7 +2002,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>81</v>
       </c>
@@ -2006,7 +2016,7 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>82</v>
       </c>
@@ -2020,7 +2030,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
@@ -2034,7 +2044,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>84</v>
       </c>
@@ -2055,7 +2065,9 @@
       <c r="B88" s="3">
         <v>44</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -2067,7 +2079,9 @@
       <c r="B89" s="5">
         <v>44</v>
       </c>
-      <c r="C89" s="5"/>
+      <c r="C89" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>

--- a/Laboratoire Laser/Liste.xlsx
+++ b/Laboratoire Laser/Liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/240740284ad6a3d3/Desktop/IND2107/IND2107/Laboratoire Laser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="8_{C2EA7841-F420-4D90-8675-9F548D98957E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12254E51-5C05-431B-A553-E4F1BE6F3F18}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="8_{C2EA7841-F420-4D90-8675-9F548D98957E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A308718-93DF-459B-885D-45726E6E1C25}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{46C34D2D-9FCF-4685-955A-75746161EDEE}"/>
   </bookViews>
@@ -551,15 +551,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6BA77527-D9F0-4834-B957-FD2B5AC2AA33}" name="Table1" displayName="Table1" ref="A1:F89" totalsRowShown="0" tableBorderDxfId="6" dataCellStyle="20% - Accent6">
-  <autoFilter ref="A1:F89" xr:uid="{6BA77527-D9F0-4834-B957-FD2B5AC2AA33}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F89" xr:uid="{6BA77527-D9F0-4834-B957-FD2B5AC2AA33}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F89">
     <sortCondition ref="B1:B89"/>
   </sortState>
@@ -875,8 +873,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A89"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +988,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1002,7 +1000,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1042,7 +1040,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1052,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1094,7 +1092,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1106,7 +1104,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1258,7 +1256,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -1270,7 +1268,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1338,7 +1336,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1350,7 +1348,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -1362,7 +1360,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -1374,7 +1372,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -1386,7 +1384,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>94</v>
       </c>
@@ -1398,7 +1396,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
@@ -1410,7 +1408,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
@@ -1422,7 +1420,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>38</v>
       </c>
@@ -1462,7 +1460,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>41</v>
       </c>
@@ -1474,7 +1472,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>42</v>
       </c>
@@ -1654,7 +1652,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -1666,7 +1664,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>56</v>
       </c>
@@ -1706,7 +1704,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -1718,7 +1716,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>60</v>
       </c>
@@ -1786,7 +1784,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>65</v>
       </c>
@@ -1798,7 +1796,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>66</v>
       </c>
@@ -1894,7 +1892,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>73</v>
       </c>
@@ -1906,7 +1904,7 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>74</v>
       </c>

--- a/Laboratoire Laser/Liste.xlsx
+++ b/Laboratoire Laser/Liste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/240740284ad6a3d3/Desktop/IND2107/IND2107/Laboratoire Laser/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\OneDrive\Desktop\IND2107\IND2107\Laboratoire Laser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="8_{C2EA7841-F420-4D90-8675-9F548D98957E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A308718-93DF-459B-885D-45726E6E1C25}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F9387B-E265-497D-8996-1BDE847B450E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{46C34D2D-9FCF-4685-955A-75746161EDEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="96">
   <si>
     <t>spartan knife (demander rescale)</t>
   </si>
@@ -317,20 +317,20 @@
     <t>Champs2</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Carte holder 2</t>
   </si>
   <si>
-    <t>n</t>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>NON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +341,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -412,26 +420,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
     <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -551,13 +560,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6BA77527-D9F0-4834-B957-FD2B5AC2AA33}" name="Table1" displayName="Table1" ref="A1:F89" totalsRowShown="0" tableBorderDxfId="6" dataCellStyle="20% - Accent6">
-  <autoFilter ref="A1:F89" xr:uid="{6BA77527-D9F0-4834-B957-FD2B5AC2AA33}"/>
+  <autoFilter ref="A1:F89" xr:uid="{6BA77527-D9F0-4834-B957-FD2B5AC2AA33}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F89">
     <sortCondition ref="B1:B89"/>
   </sortState>
@@ -873,8 +884,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,21 +923,21 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -939,22 +950,22 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>93</v>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>93</v>
+      <c r="C5" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -967,47 +978,51 @@
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>93</v>
+      <c r="C6" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>93</v>
+      <c r="C7" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4">
         <v>4</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1020,21 +1035,21 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1047,19 +1062,23 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>6</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1071,22 +1090,22 @@
       <c r="B14" s="1">
         <v>7</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>93</v>
+      <c r="C14" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>7</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>93</v>
+      <c r="C15" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1099,19 +1118,23 @@
       <c r="B16" s="3">
         <v>8</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="4">
         <v>8</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1123,22 +1146,22 @@
       <c r="B18" s="1">
         <v>9</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>93</v>
+      <c r="C18" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>9</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>93</v>
+      <c r="C19" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1151,22 +1174,22 @@
       <c r="B20" s="3">
         <v>10</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>93</v>
+      <c r="C20" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="4">
         <v>10</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>93</v>
+      <c r="C21" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1179,22 +1202,22 @@
       <c r="B22" s="1">
         <v>11</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
+      <c r="C22" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>11</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>93</v>
+      <c r="C23" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1207,22 +1230,22 @@
       <c r="B24" s="3">
         <v>12</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>93</v>
+      <c r="C24" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="4">
         <v>12</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>93</v>
+      <c r="C25" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1236,21 +1259,21 @@
         <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1263,19 +1286,23 @@
       <c r="B28" s="3">
         <v>14</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="4">
         <v>14</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1288,21 +1315,21 @@
         <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>15</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1315,47 +1342,51 @@
       <c r="B32" s="3">
         <v>16</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>93</v>
+      <c r="C32" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="4">
         <v>16</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>93</v>
+      <c r="C33" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>17</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>17</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1367,43 +1398,51 @@
       <c r="B36" s="3">
         <v>18</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="4">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" s="1">
         <v>19</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="2">
         <v>19</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1415,19 +1454,23 @@
       <c r="B40" s="3">
         <v>20</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="4">
         <v>20</v>
       </c>
-      <c r="C41" s="4"/>
+      <c r="C41" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -1440,21 +1483,21 @@
         <v>21</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B43" s="2">
         <v>21</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1467,19 +1510,23 @@
       <c r="B44" s="3">
         <v>22</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="4">
         <v>22</v>
       </c>
-      <c r="C45" s="4"/>
+      <c r="C45" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -1492,21 +1539,21 @@
         <v>23</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="2">
         <v>23</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1519,22 +1566,22 @@
       <c r="B48" s="3">
         <v>24</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>93</v>
+      <c r="C48" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="4">
         <v>24</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>93</v>
+      <c r="C49" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -1548,21 +1595,21 @@
         <v>25</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="2">
         <v>25</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1575,22 +1622,22 @@
       <c r="B52" s="3">
         <v>26</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>93</v>
+      <c r="C52" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B53" s="4">
         <v>26</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>93</v>
+      <c r="C53" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -1604,21 +1651,21 @@
         <v>27</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B55" s="2">
         <v>27</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -1631,22 +1678,22 @@
       <c r="B56" s="3">
         <v>28</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>93</v>
+      <c r="C56" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B57" s="4">
         <v>28</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>93</v>
+      <c r="C57" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -1659,19 +1706,23 @@
       <c r="B58" s="1">
         <v>29</v>
       </c>
-      <c r="C58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B59" s="2">
         <v>29</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -1683,22 +1734,22 @@
       <c r="B60" s="3">
         <v>30</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>93</v>
+      <c r="C60" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B61" s="4">
         <v>30</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>93</v>
+      <c r="C61" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -1711,19 +1762,23 @@
       <c r="B62" s="1">
         <v>31</v>
       </c>
-      <c r="C62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B63" s="2">
         <v>31</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -1735,22 +1790,22 @@
       <c r="B64" s="3">
         <v>32</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>95</v>
+      <c r="C64" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B65" s="4">
         <v>32</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>95</v>
+      <c r="C65" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -1764,21 +1819,21 @@
         <v>33</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B67" s="2">
         <v>33</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -1791,24 +1846,28 @@
       <c r="B68" s="3">
         <v>34</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B69" s="4">
         <v>34</v>
       </c>
-      <c r="C69" s="4"/>
+      <c r="C69" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
@@ -1816,21 +1875,21 @@
         <v>35</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B71" s="2">
         <v>35</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -1843,22 +1902,22 @@
       <c r="B72" s="3">
         <v>36</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>93</v>
+      <c r="C72" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B73" s="4">
         <v>36</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>93</v>
+      <c r="C73" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -1872,21 +1931,21 @@
         <v>37</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B75" s="2">
         <v>37</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -1899,19 +1958,23 @@
       <c r="B76" s="3">
         <v>38</v>
       </c>
-      <c r="C76" s="3"/>
+      <c r="C76" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B77" s="4">
         <v>38</v>
       </c>
-      <c r="C77" s="4"/>
+      <c r="C77" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -1924,21 +1987,21 @@
         <v>39</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B79" s="2">
         <v>39</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -1951,22 +2014,22 @@
       <c r="B80" s="3">
         <v>40</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>93</v>
+      <c r="C80" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B81" s="4">
         <v>40</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>93</v>
+      <c r="C81" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -1980,21 +2043,21 @@
         <v>41</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B83" s="2">
         <v>41</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2007,22 +2070,22 @@
       <c r="B84" s="3">
         <v>42</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>93</v>
+      <c r="C84" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B85" s="4">
         <v>42</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>93</v>
+      <c r="C85" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -2036,21 +2099,21 @@
         <v>43</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B87" s="2">
         <v>43</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -2063,31 +2126,77 @@
       <c r="B88" s="3">
         <v>44</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>93</v>
+      <c r="C88" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B89" s="5">
         <v>44</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>93</v>
+      <c r="C89" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{1B4A8E3E-17EB-4516-A604-BB0C8442B42C}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{F03AF948-F8EC-4B40-B327-396508F13CB4}"/>
+    <hyperlink ref="A7" r:id="rId3" xr:uid="{252274F5-3D0F-46C6-9EF1-35CA9C2C19B3}"/>
+    <hyperlink ref="A9" r:id="rId4" xr:uid="{649EC037-8FD0-4D25-AC38-912C8EC25478}"/>
+    <hyperlink ref="A11" r:id="rId5" xr:uid="{00FF423D-B812-479E-A7A3-2BB3C27362BB}"/>
+    <hyperlink ref="A13" r:id="rId6" xr:uid="{DCFD95A8-D83D-482F-9947-0F6CB0D49730}"/>
+    <hyperlink ref="A15" r:id="rId7" xr:uid="{998EABF0-E41D-49B9-8E6E-1EA922CBCB54}"/>
+    <hyperlink ref="A17" r:id="rId8" xr:uid="{624CCB38-FC0F-4BCA-8198-30131765B143}"/>
+    <hyperlink ref="A19" r:id="rId9" xr:uid="{29176924-E923-43A9-AD72-D5727BD01F7C}"/>
+    <hyperlink ref="A21" r:id="rId10" xr:uid="{6B8BD416-3DD8-4D80-BEB0-069256AE12EA}"/>
+    <hyperlink ref="A23" r:id="rId11" xr:uid="{4BB7A971-6696-4E1A-B833-19239D333BBE}"/>
+    <hyperlink ref="A25" r:id="rId12" xr:uid="{29E4E330-73C0-4784-AD6B-C8C8800DB496}"/>
+    <hyperlink ref="A27" r:id="rId13" xr:uid="{FFF8E4C3-3360-4714-BA56-CB2BF7693649}"/>
+    <hyperlink ref="A29" r:id="rId14" xr:uid="{019A4BFA-AD4B-4462-A9BF-01432C3FD5FD}"/>
+    <hyperlink ref="A31" r:id="rId15" xr:uid="{65B7445D-6AE9-438D-B19A-E196B7AEB0CC}"/>
+    <hyperlink ref="A33" r:id="rId16" xr:uid="{FFDEC4B4-0648-471C-837A-CAE1D922FE9A}"/>
+    <hyperlink ref="A35" r:id="rId17" xr:uid="{7D95BBF1-36D7-4A7F-A1AA-2564353ADC73}"/>
+    <hyperlink ref="A37" r:id="rId18" xr:uid="{748E2B57-37AC-4407-A458-B492E23E9281}"/>
+    <hyperlink ref="A39" r:id="rId19" xr:uid="{1FD42C21-A9DE-4293-B0CC-485CAF67DC00}"/>
+    <hyperlink ref="A41" r:id="rId20" xr:uid="{AC531956-F8C8-4690-9823-9AD20BE4ECDB}"/>
+    <hyperlink ref="A43" r:id="rId21" xr:uid="{D1423CD0-FF06-48B3-B222-7AB2143C1C9A}"/>
+    <hyperlink ref="A45" r:id="rId22" xr:uid="{4A5922AA-A8B0-49B9-8768-4AC1262C5C71}"/>
+    <hyperlink ref="A47" r:id="rId23" xr:uid="{ADFEEAB9-13AD-43DE-9CA9-6932CBA1BDAE}"/>
+    <hyperlink ref="A51" r:id="rId24" xr:uid="{4C037C9D-5FD2-472A-AB1C-15EA61B93137}"/>
+    <hyperlink ref="A49" r:id="rId25" xr:uid="{3523E197-1A90-41F7-8693-A52B52262FE9}"/>
+    <hyperlink ref="A53" r:id="rId26" xr:uid="{303D0ECF-BAAE-40A9-89BF-35ECF7C4A8FE}"/>
+    <hyperlink ref="A55" r:id="rId27" xr:uid="{51F44705-CB12-448F-B171-896FBDF6DBB0}"/>
+    <hyperlink ref="A57" r:id="rId28" xr:uid="{B0C19B8E-BAE5-43B6-88EF-E34F8A8576AA}"/>
+    <hyperlink ref="A59" r:id="rId29" xr:uid="{DE3EC6B0-A58D-4A5E-A4A0-BF383DF2F376}"/>
+    <hyperlink ref="A61" r:id="rId30" xr:uid="{C6315745-8B93-420C-816C-AF3D48348A67}"/>
+    <hyperlink ref="A63" r:id="rId31" xr:uid="{B687451D-CDFF-4FB3-9713-8E1451DB1B36}"/>
+    <hyperlink ref="A65" r:id="rId32" xr:uid="{4C543DBE-A85C-4C14-B428-6E4529EE2ED3}"/>
+    <hyperlink ref="A67" r:id="rId33" xr:uid="{22358F51-A20A-478E-A347-35A9201A2BA5}"/>
+    <hyperlink ref="A69" r:id="rId34" xr:uid="{12E69B50-2C99-4431-9D4D-58EC231728C0}"/>
+    <hyperlink ref="A71" r:id="rId35" xr:uid="{326BAE64-172B-4B68-A4A0-15F4C83F2D11}"/>
+    <hyperlink ref="A73" r:id="rId36" xr:uid="{4A832757-4587-412F-8153-CD31E3F213BF}"/>
+    <hyperlink ref="A75" r:id="rId37" xr:uid="{EF49951A-D7B7-4438-B7AC-D40809D4479D}"/>
+    <hyperlink ref="A77" r:id="rId38" xr:uid="{D659693A-5F14-4A26-A1A7-2E380A68FE27}"/>
+    <hyperlink ref="A79" r:id="rId39" xr:uid="{AABE01B3-BA1C-4189-88F3-A7CDB927D8DD}"/>
+    <hyperlink ref="A81" r:id="rId40" xr:uid="{B30385EE-59B7-4B6B-BD06-3B58ABD4DFAE}"/>
+    <hyperlink ref="A83" r:id="rId41" xr:uid="{457AA1BD-53B5-4D82-A649-14715541AF09}"/>
+    <hyperlink ref="A85" r:id="rId42" xr:uid="{3DA6B2ED-ABB7-473C-94B8-9468F7B2ED5B}"/>
+    <hyperlink ref="A87" r:id="rId43" xr:uid="{F87AAB48-4AE4-48BB-BD82-19BCDE19BE58}"/>
+    <hyperlink ref="A89" r:id="rId44" xr:uid="{0F187DA7-EFDB-47B6-8379-FAB5D0D3C8B0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId45"/>
   </tableParts>
 </worksheet>
 </file>
